--- a/InterlockingDemo/Datas/Switches.xlsx
+++ b/InterlockingDemo/Datas/Switches.xlsx
@@ -14,13 +14,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双动道岔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位开向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反位开向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信号机-S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机-S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -28,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +250,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,24 +586,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
